--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Psap-Gpr37l1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Psap-Gpr37l1.xlsx
@@ -528,34 +528,34 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>308.554992397642</v>
+        <v>685.3782603333333</v>
       </c>
       <c r="H2">
-        <v>308.554992397642</v>
+        <v>2056.134781</v>
       </c>
       <c r="I2">
-        <v>0.5292731197506306</v>
+        <v>0.7131285654702259</v>
       </c>
       <c r="J2">
-        <v>0.5292731197506306</v>
+        <v>0.7131285654702259</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.02410448232537</v>
+        <v>1.288321666666667</v>
       </c>
       <c r="N2">
-        <v>1.02410448232537</v>
+        <v>3.864965</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>315.9925507582956</v>
+        <v>882.9876626497406</v>
       </c>
       <c r="R2">
-        <v>315.9925507582956</v>
+        <v>7946.888963847665</v>
       </c>
       <c r="S2">
-        <v>0.5292731197506306</v>
+        <v>0.7131285654702259</v>
       </c>
       <c r="T2">
-        <v>0.5292731197506306</v>
+        <v>0.7131285654702259</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>213.04629293092</v>
+        <v>213.8079683333333</v>
       </c>
       <c r="H3">
-        <v>213.04629293092</v>
+        <v>641.423905</v>
       </c>
       <c r="I3">
-        <v>0.3654443418161866</v>
+        <v>0.2224648468854243</v>
       </c>
       <c r="J3">
-        <v>0.3654443418161866</v>
+        <v>0.2224648468854243</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.02410448232537</v>
+        <v>1.288321666666667</v>
       </c>
       <c r="N3">
-        <v>1.02410448232537</v>
+        <v>3.864965</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>218.181663533359</v>
+        <v>275.4534381098139</v>
       </c>
       <c r="R3">
-        <v>218.181663533359</v>
+        <v>2479.080942988325</v>
       </c>
       <c r="S3">
-        <v>0.3654443418161866</v>
+        <v>0.2224648468854243</v>
       </c>
       <c r="T3">
-        <v>0.3654443418161866</v>
+        <v>0.2224648468854243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.3774847684705</v>
+        <v>61.90030400000001</v>
       </c>
       <c r="H4">
-        <v>61.3774847684705</v>
+        <v>185.700912</v>
       </c>
       <c r="I4">
-        <v>0.1052825384331829</v>
+        <v>0.06440658764434989</v>
       </c>
       <c r="J4">
-        <v>0.1052825384331829</v>
+        <v>0.06440658764434989</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.02410448232537</v>
+        <v>1.288321666666667</v>
       </c>
       <c r="N4">
-        <v>1.02410448232537</v>
+        <v>3.864965</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>62.85695726524776</v>
+        <v>79.74750281645335</v>
       </c>
       <c r="R4">
-        <v>62.85695726524776</v>
+        <v>717.7275253480801</v>
       </c>
       <c r="S4">
-        <v>0.1052825384331829</v>
+        <v>0.06440658764434989</v>
       </c>
       <c r="T4">
-        <v>0.1052825384331829</v>
+        <v>0.06440658764434989</v>
       </c>
     </row>
   </sheetData>
